--- a/Block.xlsx
+++ b/Block.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -99,13 +99,175 @@
   </si>
   <si>
     <t>https://viblo.asia/p/tong-quan-ve-collections-trong-java-maGK7E0Dlj2</t>
+  </si>
+  <si>
+    <t>https://levunguyen.com/laptrinhspring/2020/04/17/cac-phuong-thuc-http/</t>
+  </si>
+  <si>
+    <t>1. Get</t>
+  </si>
+  <si>
+    <t>2. Head</t>
+  </si>
+  <si>
+    <t>3. Post</t>
+  </si>
+  <si>
+    <t>4. Put</t>
+  </si>
+  <si>
+    <t>5. Patch</t>
+  </si>
+  <si>
+    <t>6. Delete</t>
+  </si>
+  <si>
+    <t>7. Connect</t>
+  </si>
+  <si>
+    <t>8. Options</t>
+  </si>
+  <si>
+    <t>9. Trace</t>
+  </si>
+  <si>
+    <t>được sử dụng để lấy thông tin từ sever theo URI đã cung cấp</t>
+  </si>
+  <si>
+    <t>giống với GET nhưng response trả về không có body, chỉ có header</t>
+  </si>
+  <si>
+    <t>gửi thông tin tới sever thông qua các biểu mẫu http( đăng kí chả hạn..)</t>
+  </si>
+  <si>
+    <t>ghi đè tất cả thông tin của đối tượng với những gì được gửi lên</t>
+  </si>
+  <si>
+    <t>ghi đè các thông tin được thay đổi của đối tượng</t>
+  </si>
+  <si>
+    <t>xóa tài nguyên trên server</t>
+  </si>
+  <si>
+    <t>thiết lập một kết nối tới server theo URI</t>
+  </si>
+  <si>
+    <t>mô tả các tùy chọn giao tiếp cho resource</t>
+  </si>
+  <si>
+    <t>thực hiện một bài test loop - back theo đường dẫn đến resource.</t>
+  </si>
+  <si>
+    <t>Có tất cả 9 loại request</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Get dùng để lấy dữ liệu</t>
+  </si>
+  <si>
+    <t>Post dùng để đẩy dữ liệu lên</t>
+  </si>
+  <si>
+    <t>Các thông số được lưu lại trên trình duyệt</t>
+  </si>
+  <si>
+    <t>&gt; Bảo mật kém hơn</t>
+  </si>
+  <si>
+    <t>Các thông số không được lưu lại</t>
+  </si>
+  <si>
+    <t>&gt; Bảo mật tốt hơn</t>
+  </si>
+  <si>
+    <t>Chỉ 2048 kí tự dự liệu đc gửi đi</t>
+  </si>
+  <si>
+    <t>Không giới hạn dữ liệu</t>
+  </si>
+  <si>
+    <t>Get không có Body</t>
+  </si>
+  <si>
+    <t>Ý chính</t>
+  </si>
+  <si>
+    <t>ND chi tiết</t>
+  </si>
+  <si>
+    <t>Exception (ngoại lệ)</t>
+  </si>
+  <si>
+    <t>một vấn đề bất thường xảy ra trong quá trình thực hiện của chương trình mà mình có thể dự đoán hoặc không dự đoán trước</t>
+  </si>
+  <si>
+    <t>Uncheck Exception</t>
+  </si>
+  <si>
+    <t>CheckException</t>
+  </si>
+  <si>
+    <t>Những lỗi developer có thể đoán trước được</t>
+  </si>
+  <si>
+    <t>Bắt buộc developer phải bắt và xử lý ngoại lệ trong lúc compile time (lúc đang code).</t>
+  </si>
+  <si>
+    <t>Những lỗi xảy ra khi chương trình đang chạy và chúng ta không biết chắc nó có xảy ra hay không.</t>
+  </si>
+  <si>
+    <t>Không yêu cầu developer phải bắt và xử lý ngoại lệ trong lúc compile time (lúc đang code). Nhưng mà phải dự đoán được có khả năng xảy ra lỗi ở những đoạn code nào từ đó bắt lỗi cho đoạn code đó.</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>Throws</t>
+  </si>
+  <si>
+    <t>Từ khóa throw trong java được sử dụng để ném ra một ngoại lệ rõ ràng</t>
+  </si>
+  <si>
+    <t>Ngoại lệ checked không được truyền ra nếu chỉ sử dụng từ khóa throw</t>
+  </si>
+  <si>
+    <t>Từ khóa throws trong java được sử dụng để khai báo một ngoại lệ.</t>
+  </si>
+  <si>
+    <t>Ngoại lệ checked được truyền ra ngay cả khi chỉ sử dụng từ khóa throws.</t>
+  </si>
+  <si>
+    <t>Khối lệnh Finally</t>
+  </si>
+  <si>
+    <t>Các đoạn code trong khối lệnh Finally luôn luôn chạy cho dù có xảy ra lỗi ở trong khối lệnh try hay catch</t>
+  </si>
+  <si>
+    <t>Khối lệnh Finally thường dùng để.</t>
+  </si>
+  <si>
+    <t>Đóng kết nối xuống file</t>
+  </si>
+  <si>
+    <t>Đóng kết nối xuống database.</t>
+  </si>
+  <si>
+    <t>Giải phóng bộ nhớ.</t>
+  </si>
+  <si>
+    <t>https://levunguyen.com/laptrinhjava/2020/04/11/ngoai-le-trong-lap-trinh-java/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +311,67 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -184,6 +407,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,117 +702,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S13"/>
+  <dimension ref="A2:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="17.25">
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="D12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="37" spans="1:21">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="38" spans="1:21">
+      <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M7" s="3" t="s">
+    <row r="39" spans="1:21">
+      <c r="M39" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="41" spans="1:21">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="42" spans="1:21">
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="43" spans="1:21">
+      <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="44" spans="1:21">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E13" s="6" t="s">
+    <row r="45" spans="1:21">
+      <c r="E45" s="6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="B48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1"/>
-    <hyperlink ref="S10" r:id="rId2"/>
+    <hyperlink ref="S36" r:id="rId1"/>
+    <hyperlink ref="S42" r:id="rId2"/>
+    <hyperlink ref="M48" r:id="rId3"/>
+    <hyperlink ref="M18" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>